--- a/Donnees/1989 Castilla y Leon Valladolid - etr.xlsx
+++ b/Donnees/1989 Castilla y Leon Valladolid - etr.xlsx
@@ -10,12 +10,25 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="7" documentId="8_{395BC225-68CD-4287-8AB6-655CEEABE9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFBA5468-8DA6-495C-8795-33351FEFF35A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{235713EF-D110-4763-B2F2-34BBC169BA78}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="16140" windowHeight="11820" xr2:uid="{235713EF-D110-4763-B2F2-34BBC169BA78}"/>
   </bookViews>
   <sheets>
     <sheet name="estadisticas (69)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -657,6 +670,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
